--- a/test/files/sell_others_first.xlsx
+++ b/test/files/sell_others_first.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6FEC4D-22A9-6E4B-A7D4-D3558F0958BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E02407-C2A4-7F4F-B743-E45BB4270E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="500" windowWidth="30240" windowHeight="17200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buy_orders" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -69,9 +69,6 @@
     <t>sell_price</t>
   </si>
   <si>
-    <t>foreign_amount</t>
-  </si>
-  <si>
     <t>source_fees</t>
   </si>
   <si>
@@ -94,6 +91,15 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>target_amount</t>
+  </si>
+  <si>
+    <t>target_fees</t>
+  </si>
+  <si>
+    <t>source_amount</t>
   </si>
 </sst>
 </file>
@@ -154,19 +160,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,7 +367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -392,50 +394,48 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>43466</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43476</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>200</v>
       </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -450,9 +450,6 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="16.83203125" style="6"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -471,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -482,7 +479,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEA359-73B5-8042-8463-A1B5F75B918A}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -493,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -505,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -535,12 +532,6 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -578,29 +569,28 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>43476</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>200</v>
       </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -610,33 +600,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="16.83203125" style="6"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>20</v>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -667,19 +660,19 @@
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -719,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/test/files/sell_others_first.xlsx
+++ b/test/files/sell_others_first.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E02407-C2A4-7F4F-B743-E45BB4270E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C076F-95C4-0945-A76C-EAC02D91AA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buy_orders" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -69,9 +69,6 @@
     <t>sell_price</t>
   </si>
   <si>
-    <t>source_fees</t>
-  </si>
-  <si>
     <t>source_currency</t>
   </si>
   <si>
@@ -96,10 +93,10 @@
     <t>target_amount</t>
   </si>
   <si>
-    <t>target_fees</t>
-  </si>
-  <si>
     <t>source_amount</t>
+  </si>
+  <si>
+    <t>fee_currency</t>
   </si>
 </sst>
 </file>
@@ -365,16 +362,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -388,16 +386,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>43466</v>
       </c>
@@ -410,14 +411,17 @@
       <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>43476</v>
       </c>
@@ -430,10 +434,13 @@
       <c r="D3">
         <v>200</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -468,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -479,33 +486,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEA359-73B5-8042-8463-A1B5F75B918A}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>43465</v>
       </c>
@@ -515,22 +525,24 @@
       <c r="C2" s="3">
         <v>100</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
   </sheetData>
@@ -540,16 +552,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -563,16 +576,19 @@
         <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>43476</v>
       </c>
@@ -585,10 +601,13 @@
       <c r="D2">
         <v>200</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -602,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -611,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -660,19 +679,19 @@
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -703,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -712,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/test/files/sell_others_first.xlsx
+++ b/test/files/sell_others_first.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C076F-95C4-0945-A76C-EAC02D91AA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD2DE65-A3CB-3F44-8BFF-59739F2CFE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buy_orders" sheetId="1" r:id="rId1"/>
@@ -51,15 +51,9 @@
     <t>currency</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>fee_currency</t>
+  </si>
+  <si>
+    <t>ALOTOFLOVE</t>
+  </si>
+  <si>
+    <t>BERIGHTBACK</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -392,10 +394,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -403,7 +405,7 @@
         <v>43466</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -412,13 +414,13 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -426,7 +428,7 @@
         <v>43476</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -435,13 +437,13 @@
         <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -466,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -497,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -509,10 +511,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -526,13 +528,13 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -554,7 +556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -573,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -582,10 +586,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -593,7 +597,7 @@
         <v>43476</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -602,13 +606,13 @@
         <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -630,25 +634,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -676,22 +680,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -722,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -731,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
